--- a/WebContent/files/產學人才資料庫基本資料_批次匯入格式.xlsx
+++ b/WebContent/files/產學人才資料庫基本資料_批次匯入格式.xlsx
@@ -10,7 +10,7 @@
     <sheet name="產學人才基本資料" sheetId="2" r:id="rId1"/>
     <sheet name="領域別+次領域代碼" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>中文姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -628,6 +628,18 @@
   </si>
   <si>
     <t>請從此列開始填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -996,6 +1008,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1008,7 +1031,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,6 +1122,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,8 +1140,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1392,7 +1418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1400,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1424,7 +1450,7 @@
     <col min="14" max="14" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="81.75" customHeight="1">
+    <row r="1" spans="1:16" ht="81.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>72</v>
       </c>
@@ -1450,7 +1476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="23"/>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -1491,8 +1517,14 @@
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="33.75" customHeight="1">
+      <c r="O2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="33.75" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
@@ -1535,9 +1567,15 @@
       <c r="N3" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="30" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1570,10 +1608,10 @@
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -1590,7 +1628,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1601,7 +1639,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1648,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1657,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1666,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
@@ -1637,7 +1675,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1646,7 +1684,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1655,7 +1693,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
@@ -1664,7 +1702,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1711,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
@@ -1682,7 +1720,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
@@ -1691,7 +1729,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1702,7 +1740,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="13" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1749,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="13" t="s">
         <v>52</v>
       </c>
@@ -1720,7 +1758,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1731,7 +1769,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="13" t="s">
         <v>53</v>
       </c>
@@ -1740,7 +1778,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
@@ -1749,7 +1787,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
@@ -1758,7 +1796,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="13" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1805,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1778,7 +1816,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
@@ -1787,7 +1825,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="13" t="s">
         <v>57</v>
       </c>
@@ -1796,7 +1834,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
@@ -1805,7 +1843,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="13" t="s">
         <v>59</v>
       </c>
